--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf10-Tnfrsf10b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf10-Tnfrsf10b.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.33623733333333</v>
+        <v>25.70233233333333</v>
       </c>
       <c r="H2">
-        <v>43.008712</v>
+        <v>77.10699700000001</v>
       </c>
       <c r="I2">
-        <v>0.8014624210856858</v>
+        <v>0.9446552342719222</v>
       </c>
       <c r="J2">
-        <v>0.801462421085686</v>
+        <v>0.9446552342719222</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.491694333333334</v>
+        <v>14.10125566666667</v>
       </c>
       <c r="N2">
-        <v>22.475083</v>
+        <v>42.303767</v>
       </c>
       <c r="O2">
-        <v>0.6030407091893539</v>
+        <v>0.7585903740943118</v>
       </c>
       <c r="P2">
-        <v>0.6030407091893539</v>
+        <v>0.7585903740943116</v>
       </c>
       <c r="Q2">
-        <v>107.4027079914551</v>
+        <v>362.4351594619666</v>
       </c>
       <c r="R2">
-        <v>966.6243719230961</v>
+        <v>3261.916435157699</v>
       </c>
       <c r="S2">
-        <v>0.4833144668001286</v>
+        <v>0.7166063675564873</v>
       </c>
       <c r="T2">
-        <v>0.4833144668001287</v>
+        <v>0.7166063675564871</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.33623733333333</v>
+        <v>25.70233233333333</v>
       </c>
       <c r="H3">
-        <v>43.008712</v>
+        <v>77.10699700000001</v>
       </c>
       <c r="I3">
-        <v>0.8014624210856858</v>
+        <v>0.9446552342719222</v>
       </c>
       <c r="J3">
-        <v>0.801462421085686</v>
+        <v>0.9446552342719222</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>9.162189</v>
       </c>
       <c r="O3">
-        <v>0.2458354860040738</v>
+        <v>0.1642962051354147</v>
       </c>
       <c r="P3">
-        <v>0.2458354860040738</v>
+        <v>0.1642962051354147</v>
       </c>
       <c r="Q3">
-        <v>43.783771998952</v>
+        <v>78.496542192937</v>
       </c>
       <c r="R3">
-        <v>394.053947990568</v>
+        <v>706.468879736433</v>
       </c>
       <c r="S3">
-        <v>0.1970279038016012</v>
+        <v>0.155203270152183</v>
       </c>
       <c r="T3">
-        <v>0.1970279038016013</v>
+        <v>0.1552032701521829</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.33623733333333</v>
+        <v>25.70233233333333</v>
       </c>
       <c r="H4">
-        <v>43.008712</v>
+        <v>77.10699700000001</v>
       </c>
       <c r="I4">
-        <v>0.8014624210856858</v>
+        <v>0.9446552342719222</v>
       </c>
       <c r="J4">
-        <v>0.801462421085686</v>
+        <v>0.9446552342719222</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.742085333333333</v>
+        <v>1.366842</v>
       </c>
       <c r="N4">
-        <v>5.226256</v>
+        <v>4.100526</v>
       </c>
       <c r="O4">
-        <v>0.1402284087068829</v>
+        <v>0.07353055703818179</v>
       </c>
       <c r="P4">
-        <v>0.1402284087068829</v>
+        <v>0.07353055703818176</v>
       </c>
       <c r="Q4">
-        <v>24.97494879358578</v>
+        <v>35.131027331158</v>
       </c>
       <c r="R4">
-        <v>224.774539142272</v>
+        <v>316.1792459804221</v>
       </c>
       <c r="S4">
-        <v>0.1123877999472114</v>
+        <v>0.06946102558504856</v>
       </c>
       <c r="T4">
-        <v>0.1123877999472115</v>
+        <v>0.06946102558504853</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.33623733333333</v>
+        <v>25.70233233333333</v>
       </c>
       <c r="H5">
-        <v>43.008712</v>
+        <v>77.10699700000001</v>
       </c>
       <c r="I5">
-        <v>0.8014624210856858</v>
+        <v>0.9446552342719222</v>
       </c>
       <c r="J5">
-        <v>0.801462421085686</v>
+        <v>0.9446552342719222</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1353556666666667</v>
+        <v>0.06660100000000001</v>
       </c>
       <c r="N5">
-        <v>0.406067</v>
+        <v>0.199803</v>
       </c>
       <c r="O5">
-        <v>0.0108953960996893</v>
+        <v>0.003582863732091891</v>
       </c>
       <c r="P5">
-        <v>0.0108953960996893</v>
+        <v>0.00358286373209189</v>
       </c>
       <c r="Q5">
-        <v>1.940490961744889</v>
+        <v>1.711801035732334</v>
       </c>
       <c r="R5">
-        <v>17.464418655704</v>
+        <v>15.406209321591</v>
       </c>
       <c r="S5">
-        <v>0.008732250536744528</v>
+        <v>0.003384570978203639</v>
       </c>
       <c r="T5">
-        <v>0.008732250536744529</v>
+        <v>0.003384570978203638</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.703599</v>
       </c>
       <c r="I6">
-        <v>0.013111486761414</v>
+        <v>0.00861995025144722</v>
       </c>
       <c r="J6">
-        <v>0.013111486761414</v>
+        <v>0.00861995025144722</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.491694333333334</v>
+        <v>14.10125566666667</v>
       </c>
       <c r="N6">
-        <v>22.475083</v>
+        <v>42.303767</v>
       </c>
       <c r="O6">
-        <v>0.6030407091893539</v>
+        <v>0.7585903740943118</v>
       </c>
       <c r="P6">
-        <v>0.6030407091893539</v>
+        <v>0.7585903740943116</v>
       </c>
       <c r="Q6">
-        <v>1.757049547079667</v>
+        <v>3.307209795270333</v>
       </c>
       <c r="R6">
-        <v>15.813445923717</v>
+        <v>29.764888157433</v>
       </c>
       <c r="S6">
-        <v>0.007906760275129923</v>
+        <v>0.006539011285919705</v>
       </c>
       <c r="T6">
-        <v>0.007906760275129925</v>
+        <v>0.006539011285919702</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.703599</v>
       </c>
       <c r="I7">
-        <v>0.013111486761414</v>
+        <v>0.00861995025144722</v>
       </c>
       <c r="J7">
-        <v>0.013111486761414</v>
+        <v>0.00861995025144722</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>9.162189</v>
       </c>
       <c r="O7">
-        <v>0.2458354860040738</v>
+        <v>0.1642962051354147</v>
       </c>
       <c r="P7">
-        <v>0.2458354860040738</v>
+        <v>0.1642962051354147</v>
       </c>
       <c r="Q7">
         <v>0.7162785575789999</v>
@@ -883,10 +883,10 @@
         <v>6.446507018210999</v>
       </c>
       <c r="S7">
-        <v>0.003223268720228189</v>
+        <v>0.001416225114768842</v>
       </c>
       <c r="T7">
-        <v>0.003223268720228191</v>
+        <v>0.001416225114768842</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.703599</v>
       </c>
       <c r="I8">
-        <v>0.013111486761414</v>
+        <v>0.00861995025144722</v>
       </c>
       <c r="J8">
-        <v>0.013111486761414</v>
+        <v>0.00861995025144722</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.742085333333333</v>
+        <v>1.366842</v>
       </c>
       <c r="N8">
-        <v>5.226256</v>
+        <v>4.100526</v>
       </c>
       <c r="O8">
-        <v>0.1402284087068829</v>
+        <v>0.07353055703818179</v>
       </c>
       <c r="P8">
-        <v>0.1402284087068829</v>
+        <v>0.07353055703818176</v>
       </c>
       <c r="Q8">
-        <v>0.4085764994826667</v>
+        <v>0.320569554786</v>
       </c>
       <c r="R8">
-        <v>3.677188495344</v>
+        <v>2.885125993074</v>
       </c>
       <c r="S8">
-        <v>0.001838602924334447</v>
+        <v>0.0006338297436303292</v>
       </c>
       <c r="T8">
-        <v>0.001838602924334447</v>
+        <v>0.000633829743630329</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.703599</v>
       </c>
       <c r="I9">
-        <v>0.013111486761414</v>
+        <v>0.00861995025144722</v>
       </c>
       <c r="J9">
-        <v>0.013111486761414</v>
+        <v>0.00861995025144722</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1353556666666667</v>
+        <v>0.06660100000000001</v>
       </c>
       <c r="N9">
-        <v>0.406067</v>
+        <v>0.199803</v>
       </c>
       <c r="O9">
-        <v>0.0108953960996893</v>
+        <v>0.003582863732091891</v>
       </c>
       <c r="P9">
-        <v>0.0108953960996893</v>
+        <v>0.00358286373209189</v>
       </c>
       <c r="Q9">
-        <v>0.03174537057033334</v>
+        <v>0.015620132333</v>
       </c>
       <c r="R9">
-        <v>0.285708335133</v>
+        <v>0.140581190997</v>
       </c>
       <c r="S9">
-        <v>0.000142854841721438</v>
+        <v>3.088410712834662E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001428548417214381</v>
+        <v>3.088410712834662E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3035833333333333</v>
+        <v>0.2552456666666666</v>
       </c>
       <c r="H10">
-        <v>0.9107499999999999</v>
+        <v>0.765737</v>
       </c>
       <c r="I10">
-        <v>0.01697172191540608</v>
+        <v>0.009381216922838777</v>
       </c>
       <c r="J10">
-        <v>0.01697172191540608</v>
+        <v>0.009381216922838777</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.491694333333334</v>
+        <v>14.10125566666667</v>
       </c>
       <c r="N10">
-        <v>22.475083</v>
+        <v>42.303767</v>
       </c>
       <c r="O10">
-        <v>0.6030407091893539</v>
+        <v>0.7585903740943118</v>
       </c>
       <c r="P10">
-        <v>0.6030407091893539</v>
+        <v>0.7585903740943116</v>
       </c>
       <c r="Q10">
-        <v>2.274353538027778</v>
+        <v>3.599284403475444</v>
       </c>
       <c r="R10">
-        <v>20.46918184225</v>
+        <v>32.393559631279</v>
       </c>
       <c r="S10">
-        <v>0.01023463922003098</v>
+        <v>0.007116500854956157</v>
       </c>
       <c r="T10">
-        <v>0.01023463922003098</v>
+        <v>0.007116500854956155</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3035833333333333</v>
+        <v>0.2552456666666666</v>
       </c>
       <c r="H11">
-        <v>0.9107499999999999</v>
+        <v>0.765737</v>
       </c>
       <c r="I11">
-        <v>0.01697172191540608</v>
+        <v>0.009381216922838777</v>
       </c>
       <c r="J11">
-        <v>0.01697172191540608</v>
+        <v>0.009381216922838777</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>9.162189</v>
       </c>
       <c r="O11">
-        <v>0.2458354860040738</v>
+        <v>0.1642962051354147</v>
       </c>
       <c r="P11">
-        <v>0.2458354860040738</v>
+        <v>0.1642962051354147</v>
       </c>
       <c r="Q11">
-        <v>0.9271626257499999</v>
+        <v>0.7795363464769999</v>
       </c>
       <c r="R11">
-        <v>8.344463631749999</v>
+        <v>7.015827118293</v>
       </c>
       <c r="S11">
-        <v>0.004172251505399843</v>
+        <v>0.001541298339974544</v>
       </c>
       <c r="T11">
-        <v>0.004172251505399844</v>
+        <v>0.001541298339974543</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3035833333333333</v>
+        <v>0.2552456666666666</v>
       </c>
       <c r="H12">
-        <v>0.9107499999999999</v>
+        <v>0.765737</v>
       </c>
       <c r="I12">
-        <v>0.01697172191540608</v>
+        <v>0.009381216922838777</v>
       </c>
       <c r="J12">
-        <v>0.01697172191540608</v>
+        <v>0.009381216922838777</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.742085333333333</v>
+        <v>1.366842</v>
       </c>
       <c r="N12">
-        <v>5.226256</v>
+        <v>4.100526</v>
       </c>
       <c r="O12">
-        <v>0.1402284087068829</v>
+        <v>0.07353055703818179</v>
       </c>
       <c r="P12">
-        <v>0.1402284087068829</v>
+        <v>0.07353055703818176</v>
       </c>
       <c r="Q12">
-        <v>0.5288680724444444</v>
+        <v>0.348880497518</v>
       </c>
       <c r="R12">
-        <v>4.759812652</v>
+        <v>3.139924477662</v>
       </c>
       <c r="S12">
-        <v>0.002379917557213125</v>
+        <v>0.000689806106032353</v>
       </c>
       <c r="T12">
-        <v>0.002379917557213126</v>
+        <v>0.0006898061060323527</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3035833333333333</v>
+        <v>0.2552456666666666</v>
       </c>
       <c r="H13">
-        <v>0.9107499999999999</v>
+        <v>0.765737</v>
       </c>
       <c r="I13">
-        <v>0.01697172191540608</v>
+        <v>0.009381216922838777</v>
       </c>
       <c r="J13">
-        <v>0.01697172191540608</v>
+        <v>0.009381216922838777</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.1353556666666667</v>
+        <v>0.06660100000000001</v>
       </c>
       <c r="N13">
-        <v>0.406067</v>
+        <v>0.199803</v>
       </c>
       <c r="O13">
-        <v>0.0108953960996893</v>
+        <v>0.003582863732091891</v>
       </c>
       <c r="P13">
-        <v>0.0108953960996893</v>
+        <v>0.00358286373209189</v>
       </c>
       <c r="Q13">
-        <v>0.04109172447222222</v>
+        <v>0.01699961664566667</v>
       </c>
       <c r="R13">
-        <v>0.36982552025</v>
+        <v>0.152996549811</v>
       </c>
       <c r="S13">
-        <v>0.0001849136327621268</v>
+        <v>3.361162187572575E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001849136327621269</v>
+        <v>3.361162187572574E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.013244</v>
+        <v>1.016050666666667</v>
       </c>
       <c r="H14">
-        <v>9.039732000000001</v>
+        <v>3.048152</v>
       </c>
       <c r="I14">
-        <v>0.1684543702374939</v>
+        <v>0.03734359855379179</v>
       </c>
       <c r="J14">
-        <v>0.168454370237494</v>
+        <v>0.03734359855379179</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.491694333333334</v>
+        <v>14.10125566666667</v>
       </c>
       <c r="N14">
-        <v>22.475083</v>
+        <v>42.303767</v>
       </c>
       <c r="O14">
-        <v>0.6030407091893539</v>
+        <v>0.7585903740943118</v>
       </c>
       <c r="P14">
-        <v>0.6030407091893539</v>
+        <v>0.7585903740943116</v>
       </c>
       <c r="Q14">
-        <v>22.57430299975067</v>
+        <v>14.32759022095378</v>
       </c>
       <c r="R14">
-        <v>203.168726997756</v>
+        <v>128.948311988584</v>
       </c>
       <c r="S14">
-        <v>0.1015848428940643</v>
+        <v>0.02832849439694872</v>
       </c>
       <c r="T14">
-        <v>0.1015848428940644</v>
+        <v>0.02832849439694871</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.013244</v>
+        <v>1.016050666666667</v>
       </c>
       <c r="H15">
-        <v>9.039732000000001</v>
+        <v>3.048152</v>
       </c>
       <c r="I15">
-        <v>0.1684543702374939</v>
+        <v>0.03734359855379179</v>
       </c>
       <c r="J15">
-        <v>0.168454370237494</v>
+        <v>0.03734359855379179</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>9.162189</v>
       </c>
       <c r="O15">
-        <v>0.2458354860040738</v>
+        <v>0.1642962051354147</v>
       </c>
       <c r="P15">
-        <v>0.2458354860040738</v>
+        <v>0.1642962051354147</v>
       </c>
       <c r="Q15">
-        <v>9.202637010371999</v>
+        <v>3.103082747192</v>
       </c>
       <c r="R15">
-        <v>82.82373309334801</v>
+        <v>27.927744724728</v>
       </c>
       <c r="S15">
-        <v>0.0414120619768445</v>
+        <v>0.006135411528488352</v>
       </c>
       <c r="T15">
-        <v>0.04141206197684452</v>
+        <v>0.006135411528488351</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.013244</v>
+        <v>1.016050666666667</v>
       </c>
       <c r="H16">
-        <v>9.039732000000001</v>
+        <v>3.048152</v>
       </c>
       <c r="I16">
-        <v>0.1684543702374939</v>
+        <v>0.03734359855379179</v>
       </c>
       <c r="J16">
-        <v>0.168454370237494</v>
+        <v>0.03734359855379179</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.742085333333333</v>
+        <v>1.366842</v>
       </c>
       <c r="N16">
-        <v>5.226256</v>
+        <v>4.100526</v>
       </c>
       <c r="O16">
-        <v>0.1402284087068829</v>
+        <v>0.07353055703818179</v>
       </c>
       <c r="P16">
-        <v>0.1402284087068829</v>
+        <v>0.07353055703818176</v>
       </c>
       <c r="Q16">
-        <v>5.249328178154667</v>
+        <v>1.388780725328</v>
       </c>
       <c r="R16">
-        <v>47.24395360339201</v>
+        <v>12.499026527952</v>
       </c>
       <c r="S16">
-        <v>0.02362208827812387</v>
+        <v>0.00274589560347055</v>
       </c>
       <c r="T16">
-        <v>0.02362208827812388</v>
+        <v>0.002745895603470549</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.013244</v>
+        <v>1.016050666666667</v>
       </c>
       <c r="H17">
-        <v>9.039732000000001</v>
+        <v>3.048152</v>
       </c>
       <c r="I17">
-        <v>0.1684543702374939</v>
+        <v>0.03734359855379179</v>
       </c>
       <c r="J17">
-        <v>0.168454370237494</v>
+        <v>0.03734359855379179</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.1353556666666667</v>
+        <v>0.06660100000000001</v>
       </c>
       <c r="N17">
-        <v>0.406067</v>
+        <v>0.199803</v>
       </c>
       <c r="O17">
-        <v>0.0108953960996893</v>
+        <v>0.003582863732091891</v>
       </c>
       <c r="P17">
-        <v>0.0108953960996893</v>
+        <v>0.00358286373209189</v>
       </c>
       <c r="Q17">
-        <v>0.4078596504493334</v>
+        <v>0.06766999045066667</v>
       </c>
       <c r="R17">
-        <v>3.670736854044001</v>
+        <v>0.609029914056</v>
       </c>
       <c r="S17">
-        <v>0.001835377088461209</v>
+        <v>0.0001337970248841798</v>
       </c>
       <c r="T17">
-        <v>0.00183537708846121</v>
+        <v>0.0001337970248841798</v>
       </c>
     </row>
   </sheetData>
